--- a/individual_case_outputs/avey/342.xlsx
+++ b/individual_case_outputs/avey/342.xlsx
@@ -764,7 +764,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>aortic stenosis</t>
+          <t>aortic aneurism</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>arrhythmias</t>
+          <t>reflex syncope</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -886,7 +886,7 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>cardiomyopathy</t>
+          <t>chronic heart failure</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -983,11 +983,7 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>atrial fibrillation</t>
-        </is>
-      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
           <t>acute atrial fibrillation</t>
@@ -1049,7 +1045,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>cardiomyopathy</t>
+          <t>arrhythmias</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
